--- a/dashboard/soybean_yield_forecast_data.xlsx
+++ b/dashboard/soybean_yield_forecast_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryamrehmatulla/Desktop/Grain/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77D1C53-4B2B-C047-9AA7-2C1082DDBB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748BEF3F-0561-1144-B75A-C2799A4F5AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7178,7 +7178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7521,11 +7521,13 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="60.1640625" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1"/>
     <col min="12" max="12" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
